--- a/downloaded_files/CMPS102_Lecture-35460.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35460.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -258,6 +258,15 @@
     <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240235</x:t>
   </x:si>
   <x:si>
@@ -292,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mohamed Tarek Saad Abdelhamid Elborhamy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1240097</x:t>
@@ -641,7 +659,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -941,7 +959,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T56"/>
+  <x:dimension ref="A1:T58"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1832,7 +1850,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4234197917</x:v>
+        <x:v>45921.6613886574</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1864,7 +1882,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45908.4234197917</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1896,7 +1914,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1928,7 +1946,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.4792018518</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1960,7 +1978,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4551204861</x:v>
+        <x:v>45914.4792018518</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1992,7 +2010,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2024,7 +2042,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45909.4551204861</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2056,7 +2074,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2088,7 +2106,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2120,7 +2138,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2152,7 +2170,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2184,7 +2202,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2216,7 +2234,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2248,7 +2266,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2280,7 +2298,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2312,7 +2330,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.6204506944</x:v>
+        <x:v>45908.4207071412</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2344,7 +2362,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4204966782</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2376,7 +2394,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45912.6204506944</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2408,7 +2426,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45907.4204966782</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2440,7 +2458,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2472,7 +2490,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2504,7 +2522,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2536,7 +2554,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2568,7 +2586,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2600,7 +2618,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2632,7 +2650,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.3572616898</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2664,7 +2682,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2696,7 +2714,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45912.3572616898</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2728,7 +2746,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2760,7 +2778,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45908.4248946759</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2777,6 +2795,70 @@
       <x:c r="R56" s="2" t="s"/>
       <x:c r="S56" s="2" t="s"/>
       <x:c r="T56" s="2" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:20">
+      <x:c r="A57" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D57" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E57" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="2" t="s"/>
+      <x:c r="Q57" s="2" t="s"/>
+      <x:c r="R57" s="2" t="s"/>
+      <x:c r="S57" s="2" t="s"/>
+      <x:c r="T57" s="2" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20">
+      <x:c r="A58" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E58" s="3">
+        <x:v>45908.4248946759</x:v>
+      </x:c>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="2" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="2" t="s"/>
+      <x:c r="Q58" s="2" t="s"/>
+      <x:c r="R58" s="2" t="s"/>
+      <x:c r="S58" s="2" t="s"/>
+      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35460.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35460.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohammed Othman morsi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>2240008</x:t>
@@ -659,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E59" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -959,7 +968,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1946,7 +1955,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45921.66381875</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1978,7 +1987,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.4792018518</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2010,7 +2019,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.6629173264</x:v>
+        <x:v>45914.4792018518</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2042,7 +2051,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4551204861</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2074,7 +2083,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45909.4551204861</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2106,7 +2115,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2138,7 +2147,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2170,7 +2179,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2202,7 +2211,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2234,7 +2243,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2266,7 +2275,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2298,7 +2307,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2330,7 +2339,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2362,7 +2371,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45908.4207071412</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2394,7 +2403,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.6204506944</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2426,7 +2435,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4204966782</x:v>
+        <x:v>45912.6204506944</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2458,7 +2467,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.4204966782</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2490,7 +2499,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2522,7 +2531,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2554,7 +2563,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2586,7 +2595,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2618,7 +2627,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2650,7 +2659,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2682,7 +2691,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2714,7 +2723,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.3572616898</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2746,7 +2755,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45912.3572616898</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2778,7 +2787,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2810,7 +2819,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2842,7 +2851,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45908.4248946759</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2859,6 +2868,38 @@
       <x:c r="R58" s="2" t="s"/>
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20">
+      <x:c r="A59" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E59" s="3">
+        <x:v>45908.4248946759</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="2" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="2" t="s"/>
+      <x:c r="Q59" s="2" t="s"/>
+      <x:c r="R59" s="2" t="s"/>
+      <x:c r="S59" s="2" t="s"/>
+      <x:c r="T59" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35460.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35460.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>Jissca Isaac Abdelmalak Banoub</x:t>
   </x:si>
   <x:si>
+    <x:t>4250172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد وليد رمضان فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Walid Ramadan Fikry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240052</x:t>
   </x:si>
   <x:si>
@@ -328,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Omar ayman Mohamed neged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
   </x:si>
   <x:si>
     <x:t>1240098</x:t>
@@ -668,7 +686,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E59" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -968,7 +986,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T59"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -977,7 +995,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.730625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.630625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1347,7 +1365,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6753310532</x:v>
+        <x:v>45922.3784859954</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1379,7 +1397,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.8996730671</x:v>
+        <x:v>45907.6753310532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1411,7 +1429,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45909.8996730671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1443,7 +1461,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4184486111</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1475,7 +1493,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3600523958</x:v>
+        <x:v>45907.4184486111</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1507,7 +1525,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45912.3600523958</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1539,7 +1557,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4218131134</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1571,7 +1589,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.6228945255</x:v>
+        <x:v>45907.4218131134</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1603,7 +1621,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4254247685</x:v>
+        <x:v>45909.6228945255</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1635,7 +1653,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45908.4254247685</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1667,7 +1685,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3716584491</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1699,7 +1717,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4698017708</x:v>
+        <x:v>45912.3716584491</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1731,7 +1749,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4207621875</x:v>
+        <x:v>45908.4698017708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1763,7 +1781,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45908.4207621875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1795,7 +1813,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1827,7 +1845,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.7071427431</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1859,7 +1877,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.6613886574</x:v>
+        <x:v>45907.7071427431</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1891,7 +1909,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4234197917</x:v>
+        <x:v>45921.6613886574</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1923,7 +1941,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45908.4234197917</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1955,7 +1973,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.66381875</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1987,7 +2005,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45921.66381875</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2019,7 +2037,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.4792018518</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2051,7 +2069,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.6629173264</x:v>
+        <x:v>45914.4792018518</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2083,7 +2101,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4551204861</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2115,7 +2133,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45909.4551204861</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2147,7 +2165,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45922.3800849537</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2179,7 +2197,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2211,7 +2229,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2243,7 +2261,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2275,7 +2293,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2307,7 +2325,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2339,7 +2357,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2371,7 +2389,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2403,7 +2421,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2435,7 +2453,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.6204506944</x:v>
+        <x:v>45908.4207071412</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2467,7 +2485,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4204966782</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2499,7 +2517,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45912.6204506944</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2531,7 +2549,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45907.4204966782</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2563,7 +2581,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2595,7 +2613,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2627,7 +2645,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2659,7 +2677,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2691,7 +2709,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2723,7 +2741,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2755,7 +2773,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3572616898</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2787,7 +2805,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2819,7 +2837,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45912.3572616898</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2851,7 +2869,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2883,7 +2901,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45908.4248946759</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2900,6 +2918,70 @@
       <x:c r="R59" s="2" t="s"/>
       <x:c r="S59" s="2" t="s"/>
       <x:c r="T59" s="2" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20">
+      <x:c r="A60" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E60" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="2" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="2" t="s"/>
+      <x:c r="Q60" s="2" t="s"/>
+      <x:c r="R60" s="2" t="s"/>
+      <x:c r="S60" s="2" t="s"/>
+      <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45908.4248946759</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35460.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35460.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -418,15 +418,6 @@
   </x:si>
   <x:si>
     <x:t>Likaa Wael Mohamed Talaat Ahmed Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لوجي جورج ماهر شمعي بطرس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lugi George maher</x:t>
   </x:si>
   <x:si>
     <x:t>1240256</x:t>
@@ -686,7 +677,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -986,7 +977,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T60"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2453,7 +2444,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2485,7 +2476,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45912.6204506944</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2517,7 +2508,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.6204506944</x:v>
+        <x:v>45907.4204966782</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2549,7 +2540,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4204966782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2581,7 +2572,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2613,7 +2604,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2645,7 +2636,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2677,7 +2668,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2709,7 +2700,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2741,7 +2732,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2773,7 +2764,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2805,7 +2796,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45912.3572616898</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2837,7 +2828,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3572616898</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2869,7 +2860,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2901,7 +2892,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2933,7 +2924,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45908.4248946759</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2950,38 +2941,6 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:20">
-      <x:c r="A61" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="E61" s="3">
-        <x:v>45908.4248946759</x:v>
-      </x:c>
-      <x:c r="F61" s="2" t="s"/>
-      <x:c r="G61" s="2" t="s"/>
-      <x:c r="H61" s="2" t="s"/>
-      <x:c r="I61" s="2" t="s"/>
-      <x:c r="J61" s="2" t="s"/>
-      <x:c r="K61" s="2" t="s"/>
-      <x:c r="L61" s="2" t="s"/>
-      <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="2" t="s"/>
-      <x:c r="O61" s="2" t="s"/>
-      <x:c r="P61" s="2" t="s"/>
-      <x:c r="Q61" s="2" t="s"/>
-      <x:c r="R61" s="2" t="s"/>
-      <x:c r="S61" s="2" t="s"/>
-      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35460.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35460.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Basel Mahmoud Younes Ahmed Mouhamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال حمدى احمد حسين محمد احمد أبو طالب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belal Hamdy Ahmad</x:t>
   </x:si>
   <x:si>
     <x:t>1240044</x:t>
@@ -677,7 +686,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -977,7 +986,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T60"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -985,7 +994,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="33.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.630625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1164,7 +1173,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4168576042</x:v>
+        <x:v>45927.4151357292</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45927.4212224537</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6652135069</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45922.3784859954</x:v>
+        <x:v>45907.6652135069</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6753310532</x:v>
+        <x:v>45927.4879923958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.8996730671</x:v>
+        <x:v>45907.6753310532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45909.8996730671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4184486111</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.3600523958</x:v>
+        <x:v>45907.4184486111</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45912.3600523958</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4218131134</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.6228945255</x:v>
+        <x:v>45907.4218131134</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1644,7 +1653,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4254247685</x:v>
+        <x:v>45909.6228945255</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1676,7 +1685,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45908.4254247685</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1708,7 +1717,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3716584491</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1740,7 +1749,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4698017708</x:v>
+        <x:v>45912.3716584491</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1772,7 +1781,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4207621875</x:v>
+        <x:v>45908.4698017708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1804,7 +1813,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45908.4207621875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1836,7 +1845,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1868,7 +1877,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.7071427431</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1900,7 +1909,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.6613886574</x:v>
+        <x:v>45907.7071427431</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1932,7 +1941,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4234197917</x:v>
+        <x:v>45921.6613886574</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1964,7 +1973,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45908.4234197917</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1996,7 +2005,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.66381875</x:v>
+        <x:v>45927.4242462153</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2028,7 +2037,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45921.66381875</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2060,7 +2069,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.4792018518</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2092,7 +2101,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.6629173264</x:v>
+        <x:v>45927.4235988426</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2124,7 +2133,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4551204861</x:v>
+        <x:v>45927.5573278125</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2156,7 +2165,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45922.3800849537</x:v>
+        <x:v>45909.4551204861</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2188,7 +2197,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45922.3800849537</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2220,7 +2229,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2252,7 +2261,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2284,7 +2293,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2316,7 +2325,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2348,7 +2357,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2380,7 +2389,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2412,7 +2421,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2444,7 +2453,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2476,7 +2485,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.6204506944</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2508,7 +2517,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4204966782</x:v>
+        <x:v>45912.6204506944</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2540,7 +2549,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.4204966782</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2572,7 +2581,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2604,7 +2613,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2636,7 +2645,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2668,7 +2677,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2700,7 +2709,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2732,7 +2741,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2764,7 +2773,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2796,7 +2805,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.3572616898</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2828,7 +2837,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45912.3572616898</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2860,7 +2869,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2892,7 +2901,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2924,7 +2933,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45908.4248946759</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2941,6 +2950,38 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45908.4248946759</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35460.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35460.xlsx
@@ -1173,7 +1173,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4151357292</x:v>
+        <x:v>45928.3820018519</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Lecture-35460.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35460.xlsx
@@ -282,7 +282,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240235</x:t>
